--- a/dataset/confidence.xlsx
+++ b/dataset/confidence.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA991D5-2A02-0548-B721-C91EDBA8533B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5B008C-C3D0-2D43-84E9-FF883156454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
@@ -889,7 +889,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -901,6 +901,7 @@
       <b/>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1312,11 +1313,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="45.83203125" style="1" customWidth="1"/>
@@ -1330,7 +1331,7 @@
     <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34">
+    <row r="1" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1359,7 +1360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="340">
+    <row r="2" spans="1:10" ht="340" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>5.2</v>
       </c>
@@ -1391,7 +1392,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="323">
+    <row r="3" spans="1:10" ht="323" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5.2</v>
       </c>
@@ -1420,7 +1421,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="323">
+    <row r="4" spans="1:10" ht="323" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>5.2</v>
       </c>
@@ -1446,7 +1447,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="340">
+    <row r="5" spans="1:10" ht="340" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>5.2</v>
       </c>
@@ -1475,7 +1476,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="404">
+    <row r="6" spans="1:10" ht="404" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5.2</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="409.6">
+    <row r="7" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>5.2</v>
       </c>
@@ -1530,7 +1531,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="409.6">
+    <row r="8" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>5.4</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="388">
+    <row r="9" spans="1:10" ht="388" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>5.4</v>
       </c>
@@ -1588,7 +1589,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="388">
+    <row r="10" spans="1:10" ht="388" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>5.4</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="388">
+    <row r="11" spans="1:10" ht="388" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>5.4</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="388">
+    <row r="12" spans="1:10" ht="388" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>5.4</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="409.6">
+    <row r="13" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>5.4</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="409.6">
+    <row r="14" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>7.2</v>
       </c>
@@ -1733,7 +1734,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="409.6">
+    <row r="15" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>7.2</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="409.6">
+    <row r="16" spans="1:10" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>7.2</v>
       </c>
@@ -1791,7 +1792,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="409.6">
+    <row r="17" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>7.2</v>
       </c>
@@ -1820,7 +1821,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="409.6">
+    <row r="18" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>7.2</v>
       </c>
@@ -1849,7 +1850,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="409.6">
+    <row r="19" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>7.2</v>
       </c>
@@ -1878,7 +1879,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="409.6">
+    <row r="20" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>7.3</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="409.6">
+    <row r="21" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>7.3</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="409.6">
+    <row r="22" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>7.3</v>
       </c>
@@ -1959,7 +1960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="409.6">
+    <row r="23" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>7.3</v>
       </c>
@@ -1988,7 +1989,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="409.6">
+    <row r="24" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>7.3</v>
       </c>
@@ -2017,7 +2018,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="409.6">
+    <row r="25" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>7.3</v>
       </c>
@@ -2055,11 +2056,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="9.33203125" style="1" customWidth="1"/>
@@ -2072,7 +2073,7 @@
     <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34">
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2101,7 +2102,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="272">
+    <row r="2" spans="1:9" ht="272" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2137,7 +2138,7 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="8.83203125" style="1"/>
     <col min="3" max="3" width="54.1640625" style="1" customWidth="1"/>
@@ -2149,7 +2150,7 @@
     <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34">
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2178,7 +2179,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="409.6">
+    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>4</v>
       </c>
@@ -2201,7 +2202,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="388">
+    <row r="3" spans="1:9" ht="388" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>5</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="409.6">
+    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -2250,7 +2251,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="372">
+    <row r="5" spans="1:9" ht="372" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>9</v>
       </c>
@@ -2276,7 +2277,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="409.6">
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -2302,7 +2303,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="409.6">
+    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -2328,7 +2329,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="409.6">
+    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -2357,7 +2358,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="409.6">
+    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10</v>
       </c>

--- a/dataset/confidence.xlsx
+++ b/dataset/confidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5B008C-C3D0-2D43-84E9-FF883156454A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B846CE-463C-8B42-BA6B-FCC563435D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="104">
   <si>
     <t>id</t>
   </si>
@@ -883,6 +883,9 @@
   </si>
   <si>
     <t>Reliable</t>
+  </si>
+  <si>
+    <t>answer (shared_context) - 3</t>
   </si>
 </sst>
 </file>
@@ -1313,8 +1316,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:G2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1345,7 +1348,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -2225,7 +2228,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>9</v>
       </c>
@@ -2277,7 +2280,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>9</v>
       </c>
@@ -2303,7 +2306,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>9</v>
       </c>
@@ -2329,7 +2332,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -2358,7 +2361,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="409.5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10</v>
       </c>

--- a/dataset/confidence.xlsx
+++ b/dataset/confidence.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sajed/PycharmProjects/Study-on-ChatGPT/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B846CE-463C-8B42-BA6B-FCC563435D71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC32F80-118A-2044-ABD3-9E56D457F2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17300" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch1" sheetId="1" r:id="rId1"/>
     <sheet name="ch2" sheetId="2" r:id="rId2"/>
     <sheet name="ch3" sheetId="3" r:id="rId3"/>
+    <sheet name="ch4" sheetId="4" r:id="rId4"/>
+    <sheet name="ch5" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'ch1'!#REF!</definedName>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="125">
   <si>
     <t>id</t>
   </si>
@@ -886,6 +888,112 @@
   </si>
   <si>
     <t>answer (shared_context) - 3</t>
+  </si>
+  <si>
+    <t>public class Calc
+{
+   static public int add (int a, int b)
+   {
+      return a + b;
+   }
+}</t>
+  </si>
+  <si>
+    <t>Calc currently implements one function: it adds two integers. Use test-driven design to add additional functionality to subtract two integers, multiply two integers, and divide two integers. First create a failing test for one of the new functionalities, modify the class until the test passes, then perform any refactoring needed. Repeat until all of the required functionality has been added to your new version of Calc, and all tests pass.
+Remember that in TDD, the tests determine the requirements. This means you must encode decisions such as whether the division method returns an integer or a floating point number in automated tests before modifying the software.
+Submit printouts of all tests, your final version of Calc, and a screenshot showing that all tests pass. Most importantly, include a narrative describing each TDD test created, the changes needed to make it pass, and any refactoring that was necessary.</t>
+  </si>
+  <si>
+    <t>Set up a continuous integration server. Include version control for both source code and tests, and populate both with a simple example. Experiment with “breaking the build,” by either introducing a fault into the source code or adding a failing test case. Restore the build.</t>
+  </si>
+  <si>
+    <t>Find a refactoring in some large, existing system. Build tests that capture the behavior relevant to that part of the system. Refactor, and then check that the tests still pass.</t>
+  </si>
+  <si>
+    <t>Did not find any project.
+Just talked about the general steps.
+Expected code</t>
+  </si>
+  <si>
+    <t>Repair a fault in an existing system. That is, find the code that needs to change and capture the current behavior with tests. At least one of these tests must fail, thus demonstrating that you found the fault. Repair the fault and check that all of your tests now pass.</t>
+  </si>
+  <si>
+    <t>Does not demonstrate any faulty code or any failed test</t>
+  </si>
+  <si>
+    <t>Suppose that coverage criterion C1 subsumes coverage criterion C2. Further suppose that test set T1 satisfies C1 on program P, and test set T2 satisfies C2, also on P.</t>
+  </si>
+  <si>
+    <t>Does T1 necessarily satisfy C2? Explain.</t>
+  </si>
+  <si>
+    <t>Does T2 necessarily satisfy C1? Explain.</t>
+  </si>
+  <si>
+    <t>I am an AI model and don't have the ability to create classes, test or run the code. But I can guide you on how to implement the test-driven development(TDD) for the given task.
+1. Create a test class and add a test case for subtracting two integers.
+2. Run the test case, it should fail because the subtract method has not been implemented in Calc class.
+3. Add a subtract method in Calc class that takes two integers as arguments and returns the difference of those integers.
+4. Run the test case again, it should pass now.
+5. Repeat steps 1-4 for multiply and divide methods.
+6. Refactor the Calc class if necessary to make the code more readable and maintainable.
+7. Repeat the test case for all the functionalities to ensure that all test cases pass.
+8. Finally, take the printout of all test cases, final version of Calc class and a screenshot that shows all the test cases passing.
+It is important to note that in TDD, the tests determine the requirements, so it is important to decide on the requirements, such as whether the division method should return an integer or a floating-point number, before modifying the software.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Here is a general outline for setting up a continuous integration (CI) server:
+1. Choose a CI tool such as Jenkins, Travis CI, or CircleCI.
+2. Set up version control for both the source code and tests using a tool like Git. Initialize a new repository and add the source code and test files to it.
+3. Configure the CI tool to watch the repository for changes and automatically run the tests when changes are detected.
+4. Create a simple example for the source code and tests. For example, you can create a simple function that adds two numbers and write tests to check the output of the function.
+5. Push the code and tests to the repository to trigger a build. The CI tool should automatically run the tests and report the results.
+6. To "break the build," you can introduce a fault into the source code by changing the function to subtract the numbers instead of adding them. Alternatively, you can add a failing test case by changing the expected output of a test.
+7. To restore the build, fix the fault in the source code or update the failing test case. Push the changes to the repository to trigger another build, and the CI tool should report that the tests passed.
+Please note that this is a high-level overview, and the specific steps and configuration will depend on the CI tool you choose and the programming language you are using.
+</t>
+  </si>
+  <si>
+    <t>1. Identify the specific part of the large, existing system that needs to be refactored. This could be a specific module, class, or function that is causing issues or could be improved in some way.
+2. Build tests that capture the behavior relevant to that part of the system. This could include unit tests, integration tests, or end-to-end tests. These tests should be designed to verify that the functionality of the system remains unchanged after the refactoring is complete.
+3. Refactor the code, making any necessary changes to improve its quality or performance. This could include things like reducing complexity, removing duplicate code, or improving readability.
+4. Run the tests to ensure that the refactored code still behaves as expected. If any of the tests fail, investigate the cause and make any necessary adjustments to the refactored code.
+5. Once all tests have passed, the refactoring is complete, and the refactored code can be deployed to production.
+It's important to note that this is a general outline and the actual steps may vary depending on the specifics of the system and the refactoring being done.</t>
+  </si>
+  <si>
+    <t>1. Identify the fault in the existing system: This could be done by analyzing the system's code, logs, and any available documentation. It may also involve reproducing the issue by running the system and observing its behavior.
+2. Capture the current behavior with tests: Once the fault has been identified, create test cases that accurately reflect the current behavior of the system. These test cases should include input and expected output values, as well as any other relevant information. At least one of these tests should fail, as it should reflect the current faulty behavior of the system.
+3. Repair the fault: With the faulty behavior identified and captured in tests, make the necessary changes to the code to fix the issue. This could involve modifying or adding new lines of code.
+4. Check that all tests now pass: Once the code has been modified, re-run the test cases to ensure that the system's behavior is now as expected. All of the tests should pass, including the one that previously failed, demonstrating that the fault has been repaired.
+5. Update the documentation: Add the documentation of the issue and how it was fixed along with the test cases.
+6. Deploy the change: After all tests pass, deploy the change to the system.</t>
+  </si>
+  <si>
+    <t>(a) T1 may or may not satisfy C2. The fact that T1 satisfies C1, which subsumes C2, means that C1 is a more comprehensive criterion that includes all of the requirements of C2. However, it does not guarantee that T1 will also satisfy C2. T1 may include test cases that are not necessary to satisfy C2, and it may not include test cases that are necessary to satisfy C2. Therefore, additional test cases may be needed to confirm that T1 also satisfies C2.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(b) No, T2 does not necessarily satisfy C1. The fact that T2 satisfies C2, which is subsumed by C1, means that T2 meets the requirements of C2 but it does not mean that T2 meets all the requirements of C1. T2 may not include test cases that are necessary to satisfy C1, and it may include test cases that are not necessary to satisfy C1. Therefore, additional test cases may be needed to confirm that T2 also satisfies C1.
+</t>
+  </si>
+  <si>
+    <t>ChatGPT says this is an high level overview</t>
+  </si>
+  <si>
+    <t>Most continuous integration systems offer far more than automated test execution. Extend the prior exercise so that the continuous integration server uses additional verification tools such as a code coverage or static analysis tool.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To extend the prior exercise so that the continuous integration server uses additional verification tools such as a code coverage or static analysis tool, you would need to integrate these tools into the continuous integration pipeline. This can typically be done by configuring the CI server to run the tools as part of the build process, or by using a plugin or extension that integrates the tools directly into the CI server.
+For example, to add code coverage, you would need to configure the CI server to run a code coverage tool such as JaCoCo or Cobertura during the build process. This would typically involve adding the necessary dependencies and configuration to the build script, and then configuring the CI server to run the build script with the code coverage tool enabled.
+To add static analysis, you would need to configure the CI server to run a static analysis tool such as SonarQube or Checkstyle during the build process. This would typically involve adding the necessary dependencies and configuration to the build script, and then configuring the CI server to run the build script with the static analysis tool enabled.
+It's also worth to note that many CI servers, like Jenkins, Gitlab-CI, Travis-CI, etc, have built-in or widely supported plugin that already provide functionality of running code coverage and static analysis.
+</t>
+  </si>
+  <si>
+    <t>Suggests specific tools for code coverage &amp; static analysis</t>
+  </si>
+  <si>
+    <t>Understands what subsume means. But makes logical error in decision.</t>
   </si>
 </sst>
 </file>
@@ -980,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -998,6 +1106,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1316,7 +1427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C2" workbookViewId="0">
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
@@ -2137,8 +2248,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2387,4 +2498,281 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF7BDA3-79FC-F449-9226-DD684CAB18C5}">
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="8.83203125" style="1"/>
+    <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="47.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="21.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="1" customWidth="1"/>
+    <col min="9" max="9" width="22.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C82ADA0-BB4D-5643-84E1-D69690DFF047}">
+  <dimension ref="A1:I3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="41.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="49.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="57.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="136" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="170" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>